--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,72 +488,90 @@
         <v>EEL1111</v>
       </c>
       <c r="AC1" t="str">
+        <v>eel2020</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>eel7260</v>
+      </c>
+      <c r="AE1" t="str">
         <v>B20CS002</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AF1" t="str">
         <v>B20CS003</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AG1" t="str">
         <v>B20CS001</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AH1" t="str">
         <v>B20CS004</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AI1" t="str">
         <v>B20CS007</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AJ1" t="str">
         <v>B20CS107</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AK1" t="str">
         <v>B20CS008</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AL1" t="str">
         <v>B20CS006</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AM1" t="str">
         <v>B20CS009</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AN1" t="str">
         <v>B20EE099</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AO1" t="str">
         <v>B20CS097</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="AP1" t="str">
         <v>B20CS109</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AQ1" t="str">
         <v>B20CS029</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="AR1" t="str">
         <v>B20CS110</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>b20cs067</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>b20cs019</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>b20cs006</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>b20cs008</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B20CS001,B20EE099</v>
+        <v>B20CS001,B20CS097,b20cs019</v>
       </c>
       <c r="B2" t="str">
-        <v>B20CS007,B20CS097</v>
+        <v>B20CS007,B20CS097,b20cs006</v>
       </c>
       <c r="C2" t="str">
-        <v>B20CS004,B20CS097</v>
+        <v>B20CS004,B20CS109,b20cs006</v>
       </c>
       <c r="D2" t="str">
-        <v>B20CS001,B20CS097</v>
+        <v>B20CS001,B20CS109,b20cs006</v>
       </c>
       <c r="E2" t="str">
-        <v>B20CS003,B20CS109</v>
+        <v>B20CS003,B20CS109,b20cs008</v>
       </c>
       <c r="F2" t="str">
-        <v>B20CS004,B20CS109</v>
+        <v>B20CS004,B20CS029,b20cs008</v>
       </c>
       <c r="G2" t="str">
         <v>B20CS004</v>
       </c>
       <c r="H2" t="str">
-        <v>B20CS003,B20CS109</v>
+        <v>B20CS003,B20CS029,b20cs008</v>
       </c>
       <c r="I2" t="str">
         <v>B20CS007,B20CS029</v>
@@ -562,10 +580,10 @@
         <v>B20CS009</v>
       </c>
       <c r="K2" t="str">
-        <v>B20CS003,B20CS029</v>
+        <v>B20CS003,B20CS110</v>
       </c>
       <c r="L2" t="str">
-        <v>B20CS009,B20EE099,B20CS029</v>
+        <v>B20CS009,B20EE099,B20CS110</v>
       </c>
       <c r="M2" t="str">
         <v>B20CS001,B20CS110</v>
@@ -574,7 +592,7 @@
         <v>B20CS002</v>
       </c>
       <c r="O2" t="str">
-        <v>B20CS009,B20CS110</v>
+        <v>B20CS009,b20cs067</v>
       </c>
       <c r="P2" t="str">
         <v>B20CS002</v>
@@ -583,7 +601,7 @@
         <v>B20CS002</v>
       </c>
       <c r="R2" t="str">
-        <v>B20CS007,B20CS110</v>
+        <v>B20CS007,b20cs067</v>
       </c>
       <c r="S2" t="str">
         <v>B20CS107</v>
@@ -613,54 +631,72 @@
         <v>B20CS006</v>
       </c>
       <c r="AB2" t="str">
-        <v>B20EE099</v>
+        <v>B20EE099,b20cs067</v>
       </c>
       <c r="AC2" t="str">
+        <v>B20EE099,b20cs019</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>B20CS097,b20cs019</v>
+      </c>
+      <c r="AE2" t="str">
         <v>EEL7130,csl1011,csl1013</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AF2" t="str">
         <v>EEL3100,EEL3060,EEL2030</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AG2" t="str">
         <v>EEL2020,EEL3090,EEL2010</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AH2" t="str">
         <v>EEL7150,EEL2050,SHL7430</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="AI2" t="str">
         <v>EEL3080,EEL2040,EEL7650</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AJ2" t="str">
         <v>csl1012,csl1018,csl1016</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AK2" t="str">
         <v>csl1014,csl1015,csl1017</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AL2" t="str">
         <v>EEL7480,csl1019,csl1111</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AM2" t="str">
         <v>EEL7260,EEL1000,EEL3070</v>
       </c>
-      <c r="AL2" t="str">
-        <v>EEL1000,EEL1111,EEL2020</v>
-      </c>
-      <c r="AM2" t="str">
+      <c r="AN2" t="str">
+        <v>EEL1000,EEL1111,eel2020</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>eel7260,EEL2020,EEL3080</v>
+      </c>
+      <c r="AP2" t="str">
+        <v>EEL7150,EEL3090,EEL3100</v>
+      </c>
+      <c r="AQ2" t="str">
+        <v>EEL2050,EEL3060,EEL2040</v>
+      </c>
+      <c r="AR2" t="str">
+        <v>EEL2030,EEL1000,EEL2010</v>
+      </c>
+      <c r="AS2" t="str">
+        <v>EEL3070,EEL7650,EEL1111</v>
+      </c>
+      <c r="AT2" t="str">
+        <v>eel2020,eel7260,EEL2020</v>
+      </c>
+      <c r="AU2" t="str">
         <v>EEL3080,EEL7150,EEL3090</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AV2" t="str">
         <v>EEL3100,EEL2050,EEL3060</v>
-      </c>
-      <c r="AO2" t="str">
-        <v>EEL2040,EEL2030,EEL1000</v>
-      </c>
-      <c r="AP2" t="str">
-        <v>EEL2010,EEL3070,EEL7650</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AP2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AV2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -397,306 +397,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>EEL2020</v>
+        <v>eel1010</v>
       </c>
       <c r="B1" t="str">
-        <v>EEL3080</v>
-      </c>
-      <c r="C1" t="str">
-        <v>EEL7150</v>
-      </c>
-      <c r="D1" t="str">
-        <v>EEL3090</v>
-      </c>
-      <c r="E1" t="str">
-        <v>EEL3100</v>
-      </c>
-      <c r="F1" t="str">
-        <v>EEL2050</v>
-      </c>
-      <c r="G1" t="str">
-        <v>SHL7430</v>
-      </c>
-      <c r="H1" t="str">
-        <v>EEL3060</v>
-      </c>
-      <c r="I1" t="str">
-        <v>EEL2040</v>
-      </c>
-      <c r="J1" t="str">
-        <v>EEL7260</v>
-      </c>
-      <c r="K1" t="str">
-        <v>EEL2030</v>
-      </c>
-      <c r="L1" t="str">
-        <v>EEL1000</v>
-      </c>
-      <c r="M1" t="str">
-        <v>EEL2010</v>
-      </c>
-      <c r="N1" t="str">
-        <v>EEL7130</v>
-      </c>
-      <c r="O1" t="str">
-        <v>EEL3070</v>
-      </c>
-      <c r="P1" t="str">
-        <v>csl1011</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>csl1013</v>
-      </c>
-      <c r="R1" t="str">
-        <v>EEL7650</v>
-      </c>
-      <c r="S1" t="str">
-        <v>csl1012</v>
-      </c>
-      <c r="T1" t="str">
-        <v>csl1018</v>
-      </c>
-      <c r="U1" t="str">
-        <v>csl1016</v>
-      </c>
-      <c r="V1" t="str">
-        <v>csl1014</v>
-      </c>
-      <c r="W1" t="str">
-        <v>csl1015</v>
-      </c>
-      <c r="X1" t="str">
-        <v>EEL7480</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>csl1017</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>csl1019</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>csl1111</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>EEL1111</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>eel2020</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>eel7260</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>B20CS002</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>B20CS003</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>B20CS001</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>B20CS004</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>B20CS007</v>
-      </c>
-      <c r="AJ1" t="str">
-        <v>B20CS107</v>
-      </c>
-      <c r="AK1" t="str">
-        <v>B20CS008</v>
-      </c>
-      <c r="AL1" t="str">
-        <v>B20CS006</v>
-      </c>
-      <c r="AM1" t="str">
-        <v>B20CS009</v>
-      </c>
-      <c r="AN1" t="str">
-        <v>B20EE099</v>
-      </c>
-      <c r="AO1" t="str">
-        <v>B20CS097</v>
-      </c>
-      <c r="AP1" t="str">
-        <v>B20CS109</v>
-      </c>
-      <c r="AQ1" t="str">
-        <v>B20CS029</v>
-      </c>
-      <c r="AR1" t="str">
-        <v>B20CS110</v>
-      </c>
-      <c r="AS1" t="str">
-        <v>b20cs067</v>
-      </c>
-      <c r="AT1" t="str">
-        <v>b20cs019</v>
-      </c>
-      <c r="AU1" t="str">
-        <v>b20cs006</v>
-      </c>
-      <c r="AV1" t="str">
-        <v>b20cs008</v>
+        <v>b20ee011</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B20CS001,B20CS097,b20cs019</v>
+        <v>b20ee011</v>
       </c>
       <c r="B2" t="str">
-        <v>B20CS007,B20CS097,b20cs006</v>
-      </c>
-      <c r="C2" t="str">
-        <v>B20CS004,B20CS109,b20cs006</v>
-      </c>
-      <c r="D2" t="str">
-        <v>B20CS001,B20CS109,b20cs006</v>
-      </c>
-      <c r="E2" t="str">
-        <v>B20CS003,B20CS109,b20cs008</v>
-      </c>
-      <c r="F2" t="str">
-        <v>B20CS004,B20CS029,b20cs008</v>
-      </c>
-      <c r="G2" t="str">
-        <v>B20CS004</v>
-      </c>
-      <c r="H2" t="str">
-        <v>B20CS003,B20CS029,b20cs008</v>
-      </c>
-      <c r="I2" t="str">
-        <v>B20CS007,B20CS029</v>
-      </c>
-      <c r="J2" t="str">
-        <v>B20CS009</v>
-      </c>
-      <c r="K2" t="str">
-        <v>B20CS003,B20CS110</v>
-      </c>
-      <c r="L2" t="str">
-        <v>B20CS009,B20EE099,B20CS110</v>
-      </c>
-      <c r="M2" t="str">
-        <v>B20CS001,B20CS110</v>
-      </c>
-      <c r="N2" t="str">
-        <v>B20CS002</v>
-      </c>
-      <c r="O2" t="str">
-        <v>B20CS009,b20cs067</v>
-      </c>
-      <c r="P2" t="str">
-        <v>B20CS002</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>B20CS002</v>
-      </c>
-      <c r="R2" t="str">
-        <v>B20CS007,b20cs067</v>
-      </c>
-      <c r="S2" t="str">
-        <v>B20CS107</v>
-      </c>
-      <c r="T2" t="str">
-        <v>B20CS107</v>
-      </c>
-      <c r="U2" t="str">
-        <v>B20CS107</v>
-      </c>
-      <c r="V2" t="str">
-        <v>B20CS008</v>
-      </c>
-      <c r="W2" t="str">
-        <v>B20CS008</v>
-      </c>
-      <c r="X2" t="str">
-        <v>B20CS006</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>B20CS008</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>B20CS006</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>B20CS006</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>B20EE099,b20cs067</v>
-      </c>
-      <c r="AC2" t="str">
-        <v>B20EE099,b20cs019</v>
-      </c>
-      <c r="AD2" t="str">
-        <v>B20CS097,b20cs019</v>
-      </c>
-      <c r="AE2" t="str">
-        <v>EEL7130,csl1011,csl1013</v>
-      </c>
-      <c r="AF2" t="str">
-        <v>EEL3100,EEL3060,EEL2030</v>
-      </c>
-      <c r="AG2" t="str">
-        <v>EEL2020,EEL3090,EEL2010</v>
-      </c>
-      <c r="AH2" t="str">
-        <v>EEL7150,EEL2050,SHL7430</v>
-      </c>
-      <c r="AI2" t="str">
-        <v>EEL3080,EEL2040,EEL7650</v>
-      </c>
-      <c r="AJ2" t="str">
-        <v>csl1012,csl1018,csl1016</v>
-      </c>
-      <c r="AK2" t="str">
-        <v>csl1014,csl1015,csl1017</v>
-      </c>
-      <c r="AL2" t="str">
-        <v>EEL7480,csl1019,csl1111</v>
-      </c>
-      <c r="AM2" t="str">
-        <v>EEL7260,EEL1000,EEL3070</v>
-      </c>
-      <c r="AN2" t="str">
-        <v>EEL1000,EEL1111,eel2020</v>
-      </c>
-      <c r="AO2" t="str">
-        <v>eel7260,EEL2020,EEL3080</v>
-      </c>
-      <c r="AP2" t="str">
-        <v>EEL7150,EEL3090,EEL3100</v>
-      </c>
-      <c r="AQ2" t="str">
-        <v>EEL2050,EEL3060,EEL2040</v>
-      </c>
-      <c r="AR2" t="str">
-        <v>EEL2030,EEL1000,EEL2010</v>
-      </c>
-      <c r="AS2" t="str">
-        <v>EEL3070,EEL7650,EEL1111</v>
-      </c>
-      <c r="AT2" t="str">
-        <v>eel2020,eel7260,EEL2020</v>
-      </c>
-      <c r="AU2" t="str">
-        <v>EEL3080,EEL7150,EEL3090</v>
-      </c>
-      <c r="AV2" t="str">
-        <v>EEL3100,EEL2050,EEL3060</v>
+        <v>eel1010</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AV2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -1,47 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Allotment" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>course Code</t>
+  </si>
+  <si>
+    <t>ExpertTa</t>
+  </si>
+  <si>
+    <t>EEL1010</t>
+  </si>
+  <si>
+    <t>B20EE011</t>
+  </si>
+  <si>
+    <t>CSL1010</t>
+  </si>
+  <si>
+    <t>B20CS011</t>
+  </si>
+  <si>
+    <t>CS2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,13 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,31 +410,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>eel1010</v>
-      </c>
-      <c r="B1" t="str">
-        <v>b20ee011</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>b20ee011</v>
-      </c>
-      <c r="B2" t="str">
-        <v>eel1010</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>course Code</t>
   </si>
@@ -22,16 +22,13 @@
     <t>EEL1010</t>
   </si>
   <si>
+    <t>B20EE0124</t>
+  </si>
+  <si>
     <t>B20EE011</t>
   </si>
   <si>
     <t>CSL1010</t>
-  </si>
-  <si>
-    <t>B20CS011</t>
-  </si>
-  <si>
-    <t>CS2020</t>
   </si>
   <si>
     <t/>
@@ -411,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,28 +419,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>course Code</t>
   </si>
@@ -22,16 +22,7 @@
     <t>EEL1010</t>
   </si>
   <si>
-    <t>B20EE0124</t>
-  </si>
-  <si>
     <t>B20EE011</t>
-  </si>
-  <si>
-    <t>CSL1010</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -408,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,23 +410,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -11,18 +11,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>course Code</t>
   </si>
   <si>
-    <t>ExpertTa</t>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Instructor Name</t>
+  </si>
+  <si>
+    <t>Ta Alloted</t>
   </si>
   <si>
     <t>EEL1010</t>
   </si>
   <si>
+    <t>DESIGN CREDIT EE</t>
+  </si>
+  <si>
+    <t>ASHISH</t>
+  </si>
+  <si>
     <t>B20EE011</t>
+  </si>
+  <si>
+    <t>B20EE0125</t>
+  </si>
+  <si>
+    <t>B20EE0126</t>
+  </si>
+  <si>
+    <t>CSL1010</t>
+  </si>
+  <si>
+    <t>DESIGN CREDIT CS</t>
+  </si>
+  <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
+    <t>B20CS011</t>
+  </si>
+  <si>
+    <t>B20CS111</t>
+  </si>
+  <si>
+    <t>B20EE0127</t>
   </si>
 </sst>
 </file>
@@ -399,23 +435,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
   <si>
     <t>course Code</t>
   </si>
@@ -25,40 +25,445 @@
     <t>Ta Alloted</t>
   </si>
   <si>
-    <t>EEL1010</t>
-  </si>
-  <si>
-    <t>DESIGN CREDIT EE</t>
-  </si>
-  <si>
-    <t>ASHISH</t>
-  </si>
-  <si>
-    <t>B20EE011</t>
-  </si>
-  <si>
-    <t>B20EE0125</t>
-  </si>
-  <si>
-    <t>B20EE0126</t>
-  </si>
-  <si>
-    <t>CSL1010</t>
-  </si>
-  <si>
-    <t>DESIGN CREDIT CS</t>
-  </si>
-  <si>
-    <t>KUMAR</t>
-  </si>
-  <si>
-    <t>B20CS011</t>
-  </si>
-  <si>
-    <t>B20CS111</t>
-  </si>
-  <si>
-    <t>B20EE0127</t>
+    <t>EEL2010</t>
+  </si>
+  <si>
+    <t>SIGNALS AND SYSTEMS</t>
+  </si>
+  <si>
+    <t>RAJENDRA NAGAR</t>
+  </si>
+  <si>
+    <t>P20EE002</t>
+  </si>
+  <si>
+    <t>P20EE001</t>
+  </si>
+  <si>
+    <t>P20EE003</t>
+  </si>
+  <si>
+    <t>P20EE004</t>
+  </si>
+  <si>
+    <t>P20EE011</t>
+  </si>
+  <si>
+    <t>B20EE028</t>
+  </si>
+  <si>
+    <t>EEL2030</t>
+  </si>
+  <si>
+    <t>CIRCUIT THEORY</t>
+  </si>
+  <si>
+    <t>SANDEEP KUMAR YADAV</t>
+  </si>
+  <si>
+    <t>P20EE005</t>
+  </si>
+  <si>
+    <t>P20EE006</t>
+  </si>
+  <si>
+    <t>P20EE017</t>
+  </si>
+  <si>
+    <t>EEL3070</t>
+  </si>
+  <si>
+    <t>DIGITAL SIGNAL PROCESSING</t>
+  </si>
+  <si>
+    <t>ANIL KUMAR TIWARI</t>
+  </si>
+  <si>
+    <t>P20EE007</t>
+  </si>
+  <si>
+    <t>P20EE008</t>
+  </si>
+  <si>
+    <t>P20EE013</t>
+  </si>
+  <si>
+    <t>SHL7430</t>
+  </si>
+  <si>
+    <t>MEMS TECHNOLOGY FOR BIOMEDICAL APPLICATIONS</t>
+  </si>
+  <si>
+    <t>KAMALJIT RANGRA</t>
+  </si>
+  <si>
+    <t>P20SH008</t>
+  </si>
+  <si>
+    <t>EEL3080</t>
+  </si>
+  <si>
+    <t>DATA COMMUNICATION NETWORKS</t>
+  </si>
+  <si>
+    <t>ARUN KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>P20EE014</t>
+  </si>
+  <si>
+    <t>P20EE020</t>
+  </si>
+  <si>
+    <t>EEL3100</t>
+  </si>
+  <si>
+    <t>BIOIMAGING</t>
+  </si>
+  <si>
+    <t>MANISH NARWARIA</t>
+  </si>
+  <si>
+    <t>P20EE015</t>
+  </si>
+  <si>
+    <t>EEL2050</t>
+  </si>
+  <si>
+    <t>PHYSICAL ELECTRONICS</t>
+  </si>
+  <si>
+    <t>HARSHIT AGARWAL</t>
+  </si>
+  <si>
+    <t>P20EE016</t>
+  </si>
+  <si>
+    <t>P20EE034</t>
+  </si>
+  <si>
+    <t>EEL2040</t>
+  </si>
+  <si>
+    <t>ENGINEERING ELECTROMAGNETICS</t>
+  </si>
+  <si>
+    <t>SOUMAVA MUKHERJEE</t>
+  </si>
+  <si>
+    <t>P20EE018</t>
+  </si>
+  <si>
+    <t>P20EE019</t>
+  </si>
+  <si>
+    <t>P20EE037</t>
+  </si>
+  <si>
+    <t>EEL7130</t>
+  </si>
+  <si>
+    <t>SECURITY IN CPS</t>
+  </si>
+  <si>
+    <t>ANOOP JAIN</t>
+  </si>
+  <si>
+    <t>P20EE049</t>
+  </si>
+  <si>
+    <t>EEL7260</t>
+  </si>
+  <si>
+    <t>INFORMATION - CENTRIC NETWORKS</t>
+  </si>
+  <si>
+    <t>MALYALA PAVANA RAVI SAI KIRAN</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>EEL7150</t>
+  </si>
+  <si>
+    <t>EMBEDDED SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t>DEEPAKKUMAR MAGANLAL FULWANI</t>
+  </si>
+  <si>
+    <t>P20EE021</t>
+  </si>
+  <si>
+    <t>P20EE036</t>
+  </si>
+  <si>
+    <t>EEL7520</t>
+  </si>
+  <si>
+    <t>MICRO-FABRICATION TECHNOLOGIES, SENSOR SIGNALS, INTERFACING AND READ-OUT ELECTRONICS</t>
+  </si>
+  <si>
+    <t>P20EE023</t>
+  </si>
+  <si>
+    <t>CSL7650</t>
+  </si>
+  <si>
+    <t>AUTONOMOUS SYSTEMS</t>
+  </si>
+  <si>
+    <t>P20EE025</t>
+  </si>
+  <si>
+    <t>P20EE041</t>
+  </si>
+  <si>
+    <t>RML6020</t>
+  </si>
+  <si>
+    <t>P20EE026</t>
+  </si>
+  <si>
+    <t>EEL7480</t>
+  </si>
+  <si>
+    <t>MACHINE LEARNING FOR COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>P20EE042</t>
+  </si>
+  <si>
+    <t>EEL7200</t>
+  </si>
+  <si>
+    <t>DATA COMMUNICATION AND NETWORKING</t>
+  </si>
+  <si>
+    <t>EEL7220</t>
+  </si>
+  <si>
+    <t>RENEWABLE ENERGY SYSTEMS</t>
+  </si>
+  <si>
+    <t>SHAIK ABDUL GAFOOR</t>
+  </si>
+  <si>
+    <t>P20EE027</t>
+  </si>
+  <si>
+    <t>EEL7500</t>
+  </si>
+  <si>
+    <t>IC TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>EEL7270</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO HAPTICS</t>
+  </si>
+  <si>
+    <t>AMIT BHARDWAJ</t>
+  </si>
+  <si>
+    <t>P20EE032</t>
+  </si>
+  <si>
+    <t>EEL7630</t>
+  </si>
+  <si>
+    <t>CODING THEORY</t>
+  </si>
+  <si>
+    <t>AASHISH MATHUR</t>
+  </si>
+  <si>
+    <t>RMP7020</t>
+  </si>
+  <si>
+    <t>MOBILITY SYSTEMS AND UNMANNED VEHICLES LAB</t>
+  </si>
+  <si>
+    <t>CSL7590</t>
+  </si>
+  <si>
+    <t>DEEP LEARNING</t>
+  </si>
+  <si>
+    <t>P20EE029</t>
+  </si>
+  <si>
+    <t>P20EE069</t>
+  </si>
+  <si>
+    <t>EEL2020</t>
+  </si>
+  <si>
+    <t>DIGITAL DESIGN</t>
+  </si>
+  <si>
+    <t>NITIN BHATIA</t>
+  </si>
+  <si>
+    <t>P20EE039</t>
+  </si>
+  <si>
+    <t>P20EE043</t>
+  </si>
+  <si>
+    <t>P20EE058</t>
+  </si>
+  <si>
+    <t>P20EE035</t>
+  </si>
+  <si>
+    <t>P20EE038</t>
+  </si>
+  <si>
+    <t>EEL3060</t>
+  </si>
+  <si>
+    <t>POWER ENGINEERING</t>
+  </si>
+  <si>
+    <t>NISHANT KUMAR</t>
+  </si>
+  <si>
+    <t>M20EE045</t>
+  </si>
+  <si>
+    <t>P20EE012</t>
+  </si>
+  <si>
+    <t>P20EE046</t>
+  </si>
+  <si>
+    <t>P20EE31</t>
+  </si>
+  <si>
+    <t>P20EE048</t>
+  </si>
+  <si>
+    <t>MSL7340</t>
+  </si>
+  <si>
+    <t>IOT: COMPETING IN THE AGE OF INTERNET OF THINGS</t>
+  </si>
+  <si>
+    <t>P20EE051</t>
+  </si>
+  <si>
+    <t>P20EE066</t>
+  </si>
+  <si>
+    <t>EEP3020</t>
+  </si>
+  <si>
+    <t>DIGITAL SYSTEMS LAB</t>
+  </si>
+  <si>
+    <t>BINOD KUMAR</t>
+  </si>
+  <si>
+    <t>M20EE056</t>
+  </si>
+  <si>
+    <t>P20EE053</t>
+  </si>
+  <si>
+    <t>P20EE056</t>
+  </si>
+  <si>
+    <t>P20EE059</t>
+  </si>
+  <si>
+    <t>P20EE054</t>
+  </si>
+  <si>
+    <t>M20EE055</t>
+  </si>
+  <si>
+    <t>P20EE055</t>
+  </si>
+  <si>
+    <t>EEP3010</t>
+  </si>
+  <si>
+    <t>COMMUNICATION SYSTEMS LAB</t>
+  </si>
+  <si>
+    <t>EEL2060</t>
+  </si>
+  <si>
+    <t>EMBEDDED SYSTEMS AND IOT</t>
+  </si>
+  <si>
+    <t>ARPIT ARVIND KHANDELWAL</t>
+  </si>
+  <si>
+    <t>P20EE060</t>
+  </si>
+  <si>
+    <t>EEL3320</t>
+  </si>
+  <si>
+    <t>VLSI DESIGN</t>
+  </si>
+  <si>
+    <t>SHREE PRAKASH TIWARI</t>
+  </si>
+  <si>
+    <t>P20EE061</t>
+  </si>
+  <si>
+    <t>EEL7940</t>
+  </si>
+  <si>
+    <t>SIGNAL AND POWER INTEGRITY</t>
+  </si>
+  <si>
+    <t>JAI NARAYAN TRIPATHI</t>
+  </si>
+  <si>
+    <t>P20EE062</t>
+  </si>
+  <si>
+    <t>EEL7210</t>
+  </si>
+  <si>
+    <t>HARDWARE SOFTWARE CO-DESIGN</t>
+  </si>
+  <si>
+    <t>P20EE063</t>
+  </si>
+  <si>
+    <t>EEL7920</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVE ELECTRONICS DESIGN</t>
+  </si>
+  <si>
+    <t>KUNWAR ADITYA</t>
+  </si>
+  <si>
+    <t>P20EE064</t>
+  </si>
+  <si>
+    <t>EEN1010</t>
+  </si>
+  <si>
+    <t>DESIGN/PRACTICAL EXPERIENCE</t>
+  </si>
+  <si>
+    <t>RAJLAXMI CHOUHAN</t>
+  </si>
+  <si>
+    <t>P20EE065</t>
+  </si>
+  <si>
+    <t>EEN2020</t>
   </si>
 </sst>
 </file>
@@ -435,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:O35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,7 +857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -471,25 +876,605 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
   <si>
     <t>course Code</t>
   </si>
@@ -49,7 +49,7 @@
     <t>P20EE011</t>
   </si>
   <si>
-    <t>B20EE028</t>
+    <t>P20EE015</t>
   </si>
   <si>
     <t>EEL2030</t>
@@ -67,78 +67,78 @@
     <t>P20EE006</t>
   </si>
   <si>
+    <t>P20EE018</t>
+  </si>
+  <si>
+    <t>EEL3070</t>
+  </si>
+  <si>
+    <t>DIGITAL SIGNAL PROCESSING</t>
+  </si>
+  <si>
+    <t>ANIL KUMAR TIWARI</t>
+  </si>
+  <si>
+    <t>P20EE007</t>
+  </si>
+  <si>
+    <t>P20EE008</t>
+  </si>
+  <si>
+    <t>P20EE013</t>
+  </si>
+  <si>
+    <t>SHL7430</t>
+  </si>
+  <si>
+    <t>MEMS TECHNOLOGY FOR BIOMEDICAL APPLICATIONS</t>
+  </si>
+  <si>
+    <t>KAMALJIT RANGRA</t>
+  </si>
+  <si>
+    <t>P20SH008</t>
+  </si>
+  <si>
+    <t>EEL3080</t>
+  </si>
+  <si>
+    <t>DATA COMMUNICATION NETWORKS</t>
+  </si>
+  <si>
+    <t>ARUN KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>P20EE014</t>
+  </si>
+  <si>
+    <t>P20EE020</t>
+  </si>
+  <si>
+    <t>EEL3100</t>
+  </si>
+  <si>
+    <t>BIOIMAGING</t>
+  </si>
+  <si>
+    <t>MANISH NARWARIA</t>
+  </si>
+  <si>
+    <t>EEL2050</t>
+  </si>
+  <si>
+    <t>PHYSICAL ELECTRONICS</t>
+  </si>
+  <si>
+    <t>HARSHIT AGARWAL</t>
+  </si>
+  <si>
+    <t>P20EE016</t>
+  </si>
+  <si>
     <t>P20EE017</t>
   </si>
   <si>
-    <t>EEL3070</t>
-  </si>
-  <si>
-    <t>DIGITAL SIGNAL PROCESSING</t>
-  </si>
-  <si>
-    <t>ANIL KUMAR TIWARI</t>
-  </si>
-  <si>
-    <t>P20EE007</t>
-  </si>
-  <si>
-    <t>P20EE008</t>
-  </si>
-  <si>
-    <t>P20EE013</t>
-  </si>
-  <si>
-    <t>SHL7430</t>
-  </si>
-  <si>
-    <t>MEMS TECHNOLOGY FOR BIOMEDICAL APPLICATIONS</t>
-  </si>
-  <si>
-    <t>KAMALJIT RANGRA</t>
-  </si>
-  <si>
-    <t>P20SH008</t>
-  </si>
-  <si>
-    <t>EEL3080</t>
-  </si>
-  <si>
-    <t>DATA COMMUNICATION NETWORKS</t>
-  </si>
-  <si>
-    <t>ARUN KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>P20EE014</t>
-  </si>
-  <si>
-    <t>P20EE020</t>
-  </si>
-  <si>
-    <t>EEL3100</t>
-  </si>
-  <si>
-    <t>BIOIMAGING</t>
-  </si>
-  <si>
-    <t>MANISH NARWARIA</t>
-  </si>
-  <si>
-    <t>P20EE015</t>
-  </si>
-  <si>
-    <t>EEL2050</t>
-  </si>
-  <si>
-    <t>PHYSICAL ELECTRONICS</t>
-  </si>
-  <si>
-    <t>HARSHIT AGARWAL</t>
-  </si>
-  <si>
-    <t>P20EE016</t>
-  </si>
-  <si>
     <t>P20EE034</t>
   </si>
   <si>
@@ -151,160 +151,166 @@
     <t>SOUMAVA MUKHERJEE</t>
   </si>
   <si>
-    <t>P20EE018</t>
-  </si>
-  <si>
     <t>P20EE019</t>
   </si>
   <si>
+    <t>P20EE027</t>
+  </si>
+  <si>
+    <t>EEL7130</t>
+  </si>
+  <si>
+    <t>SECURITY IN CPS</t>
+  </si>
+  <si>
+    <t>ANOOP JAIN</t>
+  </si>
+  <si>
+    <t>P20EE049</t>
+  </si>
+  <si>
+    <t>EEL7260</t>
+  </si>
+  <si>
+    <t>INFORMATION - CENTRIC NETWORKS</t>
+  </si>
+  <si>
+    <t>MALYALA PAVANA RAVI SAI KIRAN</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>EEL7150</t>
+  </si>
+  <si>
+    <t>EMBEDDED SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t>DEEPAKKUMAR MAGANLAL FULWANI</t>
+  </si>
+  <si>
+    <t>P20EE021</t>
+  </si>
+  <si>
+    <t>P20EE036</t>
+  </si>
+  <si>
+    <t>EEL7520</t>
+  </si>
+  <si>
+    <t>MICRO-FABRICATION TECHNOLOGIES, SENSOR SIGNALS, INTERFACING AND READ-OUT ELECTRONICS</t>
+  </si>
+  <si>
+    <t>P20EE023</t>
+  </si>
+  <si>
+    <t>CSL7650</t>
+  </si>
+  <si>
+    <t>AUTONOMOUS SYSTEMS</t>
+  </si>
+  <si>
+    <t>P20EE025</t>
+  </si>
+  <si>
+    <t>P20EE032</t>
+  </si>
+  <si>
+    <t>P20EE041</t>
+  </si>
+  <si>
+    <t>RML6020</t>
+  </si>
+  <si>
+    <t>EEL7480</t>
+  </si>
+  <si>
+    <t>MACHINE LEARNING FOR COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>P20EE042</t>
+  </si>
+  <si>
+    <t>EEL7200</t>
+  </si>
+  <si>
+    <t>DATA COMMUNICATION AND NETWORKING</t>
+  </si>
+  <si>
+    <t>P20EE026</t>
+  </si>
+  <si>
+    <t>EEL7220</t>
+  </si>
+  <si>
+    <t>RENEWABLE ENERGY SYSTEMS</t>
+  </si>
+  <si>
+    <t>SHAIK ABDUL GAFOOR</t>
+  </si>
+  <si>
+    <t>EEL7500</t>
+  </si>
+  <si>
+    <t>IC TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>B20EE134</t>
+  </si>
+  <si>
+    <t>EEL7270</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO HAPTICS</t>
+  </si>
+  <si>
+    <t>AMIT BHARDWAJ</t>
+  </si>
+  <si>
+    <t>EEL7630</t>
+  </si>
+  <si>
+    <t>CODING THEORY</t>
+  </si>
+  <si>
+    <t>AASHISH MATHUR</t>
+  </si>
+  <si>
+    <t>RMP7020</t>
+  </si>
+  <si>
+    <t>MOBILITY SYSTEMS AND UNMANNED VEHICLES LAB</t>
+  </si>
+  <si>
+    <t>CSL7590</t>
+  </si>
+  <si>
+    <t>DEEP LEARNING</t>
+  </si>
+  <si>
+    <t>P20EE029</t>
+  </si>
+  <si>
+    <t>P20EE069</t>
+  </si>
+  <si>
+    <t>EEL2020</t>
+  </si>
+  <si>
+    <t>DIGITAL DESIGN</t>
+  </si>
+  <si>
+    <t>NITIN BHATIA</t>
+  </si>
+  <si>
     <t>P20EE037</t>
   </si>
   <si>
-    <t>EEL7130</t>
-  </si>
-  <si>
-    <t>SECURITY IN CPS</t>
-  </si>
-  <si>
-    <t>ANOOP JAIN</t>
-  </si>
-  <si>
-    <t>P20EE049</t>
-  </si>
-  <si>
-    <t>EEL7260</t>
-  </si>
-  <si>
-    <t>INFORMATION - CENTRIC NETWORKS</t>
-  </si>
-  <si>
-    <t>MALYALA PAVANA RAVI SAI KIRAN</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>EEL7150</t>
-  </si>
-  <si>
-    <t>EMBEDDED SYSTEM DESIGN</t>
-  </si>
-  <si>
-    <t>DEEPAKKUMAR MAGANLAL FULWANI</t>
-  </si>
-  <si>
-    <t>P20EE021</t>
-  </si>
-  <si>
-    <t>P20EE036</t>
-  </si>
-  <si>
-    <t>EEL7520</t>
-  </si>
-  <si>
-    <t>MICRO-FABRICATION TECHNOLOGIES, SENSOR SIGNALS, INTERFACING AND READ-OUT ELECTRONICS</t>
-  </si>
-  <si>
-    <t>P20EE023</t>
-  </si>
-  <si>
-    <t>CSL7650</t>
-  </si>
-  <si>
-    <t>AUTONOMOUS SYSTEMS</t>
-  </si>
-  <si>
-    <t>P20EE025</t>
-  </si>
-  <si>
-    <t>P20EE041</t>
-  </si>
-  <si>
-    <t>RML6020</t>
-  </si>
-  <si>
-    <t>P20EE026</t>
-  </si>
-  <si>
-    <t>EEL7480</t>
-  </si>
-  <si>
-    <t>MACHINE LEARNING FOR COMMUNICATIONS</t>
-  </si>
-  <si>
-    <t>P20EE042</t>
-  </si>
-  <si>
-    <t>EEL7200</t>
-  </si>
-  <si>
-    <t>DATA COMMUNICATION AND NETWORKING</t>
-  </si>
-  <si>
-    <t>EEL7220</t>
-  </si>
-  <si>
-    <t>RENEWABLE ENERGY SYSTEMS</t>
-  </si>
-  <si>
-    <t>SHAIK ABDUL GAFOOR</t>
-  </si>
-  <si>
-    <t>P20EE027</t>
-  </si>
-  <si>
-    <t>EEL7500</t>
-  </si>
-  <si>
-    <t>IC TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>EEL7270</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO HAPTICS</t>
-  </si>
-  <si>
-    <t>AMIT BHARDWAJ</t>
-  </si>
-  <si>
-    <t>P20EE032</t>
-  </si>
-  <si>
-    <t>EEL7630</t>
-  </si>
-  <si>
-    <t>CODING THEORY</t>
-  </si>
-  <si>
-    <t>AASHISH MATHUR</t>
-  </si>
-  <si>
-    <t>RMP7020</t>
-  </si>
-  <si>
-    <t>MOBILITY SYSTEMS AND UNMANNED VEHICLES LAB</t>
-  </si>
-  <si>
-    <t>CSL7590</t>
-  </si>
-  <si>
-    <t>DEEP LEARNING</t>
-  </si>
-  <si>
-    <t>P20EE029</t>
-  </si>
-  <si>
-    <t>P20EE069</t>
-  </si>
-  <si>
-    <t>EEL2020</t>
-  </si>
-  <si>
-    <t>DIGITAL DESIGN</t>
-  </si>
-  <si>
-    <t>NITIN BHATIA</t>
+    <t>P20EE035</t>
+  </si>
+  <si>
+    <t>P20EE038</t>
   </si>
   <si>
     <t>P20EE039</t>
@@ -313,87 +319,90 @@
     <t>P20EE043</t>
   </si>
   <si>
+    <t>M20EE043</t>
+  </si>
+  <si>
+    <t>P20EE050</t>
+  </si>
+  <si>
+    <t>EEL3060</t>
+  </si>
+  <si>
+    <t>POWER ENGINEERING</t>
+  </si>
+  <si>
+    <t>NISHANT KUMAR</t>
+  </si>
+  <si>
+    <t>P20EE031</t>
+  </si>
+  <si>
+    <t>M20EE045</t>
+  </si>
+  <si>
+    <t>P20EE012</t>
+  </si>
+  <si>
+    <t>P20EE048</t>
+  </si>
+  <si>
+    <t>MSL7340</t>
+  </si>
+  <si>
+    <t>IOT: COMPETING IN THE AGE OF INTERNET OF THINGS</t>
+  </si>
+  <si>
+    <t>P20EE051</t>
+  </si>
+  <si>
+    <t>P20EE066</t>
+  </si>
+  <si>
+    <t>EEP3020</t>
+  </si>
+  <si>
+    <t>DIGITAL SYSTEMS LAB</t>
+  </si>
+  <si>
+    <t>BINOD KUMAR</t>
+  </si>
+  <si>
+    <t>M20EE055</t>
+  </si>
+  <si>
+    <t>P20EE053</t>
+  </si>
+  <si>
+    <t>P20EE056</t>
+  </si>
+  <si>
+    <t>P20EE059</t>
+  </si>
+  <si>
+    <t>P20EE054</t>
+  </si>
+  <si>
+    <t>M20EE056</t>
+  </si>
+  <si>
     <t>P20EE058</t>
   </si>
   <si>
-    <t>P20EE035</t>
-  </si>
-  <si>
-    <t>P20EE038</t>
-  </si>
-  <si>
-    <t>EEL3060</t>
-  </si>
-  <si>
-    <t>POWER ENGINEERING</t>
-  </si>
-  <si>
-    <t>NISHANT KUMAR</t>
-  </si>
-  <si>
-    <t>M20EE045</t>
-  </si>
-  <si>
-    <t>P20EE012</t>
-  </si>
-  <si>
-    <t>P20EE046</t>
-  </si>
-  <si>
-    <t>P20EE31</t>
-  </si>
-  <si>
-    <t>P20EE048</t>
-  </si>
-  <si>
-    <t>MSL7340</t>
-  </si>
-  <si>
-    <t>IOT: COMPETING IN THE AGE OF INTERNET OF THINGS</t>
-  </si>
-  <si>
-    <t>P20EE051</t>
-  </si>
-  <si>
-    <t>P20EE066</t>
-  </si>
-  <si>
-    <t>EEP3020</t>
-  </si>
-  <si>
-    <t>DIGITAL SYSTEMS LAB</t>
-  </si>
-  <si>
-    <t>BINOD KUMAR</t>
-  </si>
-  <si>
-    <t>M20EE056</t>
-  </si>
-  <si>
-    <t>P20EE053</t>
-  </si>
-  <si>
-    <t>P20EE056</t>
-  </si>
-  <si>
-    <t>P20EE059</t>
-  </si>
-  <si>
-    <t>P20EE054</t>
-  </si>
-  <si>
-    <t>M20EE055</t>
-  </si>
-  <si>
     <t>P20EE055</t>
   </si>
   <si>
+    <t>B20EE145</t>
+  </si>
+  <si>
     <t>EEP3010</t>
   </si>
   <si>
     <t>COMMUNICATION SYSTEMS LAB</t>
   </si>
   <si>
+    <t>B20EE0128</t>
+  </si>
+  <si>
     <t>EEL2060</t>
   </si>
   <si>
@@ -403,9 +412,6 @@
     <t>ARPIT ARVIND KHANDELWAL</t>
   </si>
   <si>
-    <t>P20EE060</t>
-  </si>
-  <si>
     <t>EEL3320</t>
   </si>
   <si>
@@ -464,6 +470,21 @@
   </si>
   <si>
     <t>EEN2020</t>
+  </si>
+  <si>
+    <t>EEL1010</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO ELECTRICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>ARANI ALI KHAN</t>
+  </si>
+  <si>
+    <t>B20EE167</t>
+  </si>
+  <si>
+    <t>B20EE0129</t>
   </si>
 </sst>
 </file>
@@ -840,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,27 +992,27 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -1008,88 +1029,91 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1098,41 +1122,41 @@
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,24 +1170,24 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,72 +1201,72 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
         <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
         <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>96</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -1251,54 +1275,54 @@
         <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N24" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,7 +1333,7 @@
         <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>113</v>
@@ -1318,7 +1342,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -1335,146 +1359,181 @@
         <v>119</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
         <v>121</v>
       </c>
-      <c r="I27" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" t="s">
         <v>126</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
         <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
         <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="155">
   <si>
     <t>course Code</t>
   </si>
@@ -113,15 +113,6 @@
   </si>
   <si>
     <t>P20EE020</t>
-  </si>
-  <si>
-    <t>EEL3100</t>
-  </si>
-  <si>
-    <t>BIOIMAGING</t>
-  </si>
-  <si>
-    <t>MANISH NARWARIA</t>
   </si>
   <si>
     <t>EEL2050</t>
@@ -861,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,7 +972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -992,98 +983,95 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1091,44 +1079,44 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,13 +1127,13 @@
         <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1153,13 +1141,16 @@
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1167,13 +1158,10 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,10 +1172,10 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,7 +1189,7 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,175 +1200,181 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>87</v>
       </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>88</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" t="s">
         <v>123</v>
       </c>
-      <c r="J27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" t="s">
-        <v>125</v>
-      </c>
-      <c r="L27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1388,19 +1382,16 @@
         <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -1411,41 +1402,38 @@
         <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -1453,87 +1441,73 @@
         <v>142</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
         <v>146</v>
       </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
         <v>148</v>
       </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>150</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B35" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
         <v>152</v>
       </c>
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>96</v>
       </c>
-      <c r="D35" t="s">
-        <v>114</v>
-      </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
         <v>153</v>
       </c>
-      <c r="B36" t="s">
+      <c r="H35" t="s">
         <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/src/allotment.xlsx
+++ b/src/allotment.xlsx
@@ -259,138 +259,132 @@
     <t>AMIT BHARDWAJ</t>
   </si>
   <si>
-    <t>EEL7630</t>
-  </si>
-  <si>
-    <t>CODING THEORY</t>
+    <t>RMP7020</t>
+  </si>
+  <si>
+    <t>MOBILITY SYSTEMS AND UNMANNED VEHICLES LAB</t>
+  </si>
+  <si>
+    <t>CSL7590</t>
+  </si>
+  <si>
+    <t>DEEP LEARNING</t>
+  </si>
+  <si>
+    <t>P20EE029</t>
+  </si>
+  <si>
+    <t>P20EE069</t>
+  </si>
+  <si>
+    <t>EEL2020</t>
+  </si>
+  <si>
+    <t>DIGITAL DESIGN</t>
+  </si>
+  <si>
+    <t>NITIN BHATIA</t>
+  </si>
+  <si>
+    <t>P20EE037</t>
+  </si>
+  <si>
+    <t>P20EE035</t>
+  </si>
+  <si>
+    <t>P20EE038</t>
+  </si>
+  <si>
+    <t>P20EE039</t>
+  </si>
+  <si>
+    <t>P20EE043</t>
+  </si>
+  <si>
+    <t>M20EE043</t>
+  </si>
+  <si>
+    <t>P20EE050</t>
+  </si>
+  <si>
+    <t>EEL3060</t>
+  </si>
+  <si>
+    <t>POWER ENGINEERING</t>
+  </si>
+  <si>
+    <t>NISHANT KUMAR</t>
+  </si>
+  <si>
+    <t>P20EE031</t>
+  </si>
+  <si>
+    <t>M20EE045</t>
+  </si>
+  <si>
+    <t>P20EE012</t>
+  </si>
+  <si>
+    <t>P20EE048</t>
+  </si>
+  <si>
+    <t>MSL7340</t>
+  </si>
+  <si>
+    <t>IOT: COMPETING IN THE AGE OF INTERNET OF THINGS</t>
+  </si>
+  <si>
+    <t>P20EE051</t>
+  </si>
+  <si>
+    <t>P20EE066</t>
+  </si>
+  <si>
+    <t>EEP3020</t>
+  </si>
+  <si>
+    <t>DIGITAL SYSTEMS LAB</t>
+  </si>
+  <si>
+    <t>BINOD KUMAR</t>
+  </si>
+  <si>
+    <t>M20EE055</t>
+  </si>
+  <si>
+    <t>P20EE053</t>
+  </si>
+  <si>
+    <t>P20EE056</t>
+  </si>
+  <si>
+    <t>P20EE059</t>
+  </si>
+  <si>
+    <t>P20EE054</t>
+  </si>
+  <si>
+    <t>M20EE056</t>
+  </si>
+  <si>
+    <t>P20EE058</t>
+  </si>
+  <si>
+    <t>P20EE055</t>
+  </si>
+  <si>
+    <t>B20EE145</t>
+  </si>
+  <si>
+    <t>EEP3010</t>
+  </si>
+  <si>
+    <t>COMMUNICATION SYSTEMS LAB</t>
   </si>
   <si>
     <t>AASHISH MATHUR</t>
   </si>
   <si>
-    <t>RMP7020</t>
-  </si>
-  <si>
-    <t>MOBILITY SYSTEMS AND UNMANNED VEHICLES LAB</t>
-  </si>
-  <si>
-    <t>CSL7590</t>
-  </si>
-  <si>
-    <t>DEEP LEARNING</t>
-  </si>
-  <si>
-    <t>P20EE029</t>
-  </si>
-  <si>
-    <t>P20EE069</t>
-  </si>
-  <si>
-    <t>EEL2020</t>
-  </si>
-  <si>
-    <t>DIGITAL DESIGN</t>
-  </si>
-  <si>
-    <t>NITIN BHATIA</t>
-  </si>
-  <si>
-    <t>P20EE037</t>
-  </si>
-  <si>
-    <t>P20EE035</t>
-  </si>
-  <si>
-    <t>P20EE038</t>
-  </si>
-  <si>
-    <t>P20EE039</t>
-  </si>
-  <si>
-    <t>P20EE043</t>
-  </si>
-  <si>
-    <t>M20EE043</t>
-  </si>
-  <si>
-    <t>P20EE050</t>
-  </si>
-  <si>
-    <t>EEL3060</t>
-  </si>
-  <si>
-    <t>POWER ENGINEERING</t>
-  </si>
-  <si>
-    <t>NISHANT KUMAR</t>
-  </si>
-  <si>
-    <t>P20EE031</t>
-  </si>
-  <si>
-    <t>M20EE045</t>
-  </si>
-  <si>
-    <t>P20EE012</t>
-  </si>
-  <si>
-    <t>P20EE048</t>
-  </si>
-  <si>
-    <t>MSL7340</t>
-  </si>
-  <si>
-    <t>IOT: COMPETING IN THE AGE OF INTERNET OF THINGS</t>
-  </si>
-  <si>
-    <t>P20EE051</t>
-  </si>
-  <si>
-    <t>P20EE066</t>
-  </si>
-  <si>
-    <t>EEP3020</t>
-  </si>
-  <si>
-    <t>DIGITAL SYSTEMS LAB</t>
-  </si>
-  <si>
-    <t>BINOD KUMAR</t>
-  </si>
-  <si>
-    <t>M20EE055</t>
-  </si>
-  <si>
-    <t>P20EE053</t>
-  </si>
-  <si>
-    <t>P20EE056</t>
-  </si>
-  <si>
-    <t>P20EE059</t>
-  </si>
-  <si>
-    <t>P20EE054</t>
-  </si>
-  <si>
-    <t>M20EE056</t>
-  </si>
-  <si>
-    <t>P20EE058</t>
-  </si>
-  <si>
-    <t>P20EE055</t>
-  </si>
-  <si>
-    <t>B20EE145</t>
-  </si>
-  <si>
-    <t>EEP3010</t>
-  </si>
-  <si>
-    <t>COMMUNICATION SYSTEMS LAB</t>
-  </si>
-  <si>
     <t>B20EE0128</t>
   </si>
   <si>
@@ -476,6 +470,12 @@
   </si>
   <si>
     <t>B20EE0129</t>
+  </si>
+  <si>
+    <t>EEL9090</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -1186,328 +1186,328 @@
         <v>83</v>
       </c>
       <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
         <v>119</v>
       </c>
-      <c r="I26" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>121</v>
-      </c>
-      <c r="K26" t="s">
-        <v>122</v>
-      </c>
-      <c r="L26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
         <v>144</v>
       </c>
-      <c r="E32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
         <v>146</v>
       </c>
-      <c r="C33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
       <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" t="s">
-        <v>111</v>
-      </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
